--- a/data/Dist_Mexico_TC06.xlsx
+++ b/data/Dist_Mexico_TC06.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
